--- a/csp/timetable/data.xlsx
+++ b/csp/timetable/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="교수" sheetId="1" state="visible" r:id="rId2"/>
@@ -143,7 +143,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9~12</t>
+      <t xml:space="preserve">9</t>
     </r>
   </si>
   <si>
@@ -158,6 +158,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">수</t>
     </r>
@@ -168,7 +169,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9~12</t>
+      <t xml:space="preserve">9</t>
     </r>
   </si>
   <si>
@@ -1475,9 +1476,8 @@
   <fonts count="8">
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Noto Sans CJK JP"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1518,8 +1518,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Noto Sans CJK SC"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1666,10 +1667,10 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1717,7 +1718,7 @@
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1734,7 +1735,7 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1751,7 +1752,7 @@
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1768,7 +1769,7 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1785,10 +1786,10 @@
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="0" t="n">
@@ -1802,10 +1803,10 @@
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="0" t="n">
@@ -1822,7 +1823,7 @@
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="0" t="n">
@@ -1839,7 +1840,7 @@
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="0" t="n">
@@ -1856,7 +1857,7 @@
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="0" t="n">
@@ -1870,10 +1871,10 @@
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
@@ -1887,10 +1888,10 @@
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="0" t="n">
@@ -1918,7 +1919,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topRight" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2186,7 +2187,7 @@
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -2206,7 +2207,7 @@
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -2350,7 +2351,7 @@
         <v>55</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>9</v>
@@ -2370,7 +2371,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>9</v>
@@ -2390,7 +2391,7 @@
         <v>57</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>16</v>
@@ -2440,7 +2441,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
